--- a/biology/Botanique/Solanum_boliviense/Solanum_boliviense.xlsx
+++ b/biology/Botanique/Solanum_boliviense/Solanum_boliviense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Solanum boliviense est une espèce de plante herbacée tubéreuse vivace de la famille des Solanaceae, originaire d'Amérique du Sud. Elle est apparentée à la pomme de terre cultivée, mais contrairement à celle-ci, elle est diploïde (2n = 2x = 24).
 </t>
@@ -511,13 +523,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Solanum boliviense est une plante herbacée tubéreuse vivace à port en rosette ou faiblement dressé, pouvant atteindre 30 à 40 cm de haut. Elle produit de petits tubercule globuleux de 1 à 2 cm de diamètre de couleur blanc jaunâtre.
 Les feuilles généralement simples, elliptiques-lancéolées, portent parfois une ou deux paires de folioles. Elles mesurent de 4,5 à 8 cm de long et de 2 à 4 cm de large.
 Les fleurs ont une corolle pentagonale, de 2,5 à 4 cm de diamètre, de couleur violette.
 Elles sont groupées en inflorescences cymeuses comptant jusqu'à une dizaine de fleurs.
-Les fruits sont de petites baies globuleuses de 2,5 cm de long, de couleur verte. Ils contiennent de nombreuses graines ovoïdes de 2 mm de long environ[1].
+Les fruits sont de petites baies globuleuses de 2,5 cm de long, de couleur verte. Ils contiennent de nombreuses graines ovoïdes de 2 mm de long environ.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Solanum boliviense se rencontre dans les montagnes andines du sud du Pérou (régions d'Apurimac, Arequipa, Cuzco, Puno) à la Bolivie (départements de Cochabamba, La Paz, Oruro, Potosi, Tarija) et au nord de l'Argentine (provinces de Catamarca, Jujuy, Salta, Tucuman), entre 1600 et 4200 mètres d'altitude[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Solanum boliviense se rencontre dans les montagnes andines du sud du Pérou (régions d'Apurimac, Arequipa, Cuzco, Puno) à la Bolivie (départements de Cochabamba, La Paz, Oruro, Potosi, Tarija) et au nord de l'Argentine (provinces de Catamarca, Jujuy, Salta, Tucuman), entre 1600 et 4200 mètres d'altitude,.
 </t>
         </is>
       </c>
